--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-226-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-226-top-by-haul.xlsx
@@ -104,7 +104,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>26 ч. 2 мин. 17 сек.</t>
+    <t>26 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -167,7 +167,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 40 сек.</t>
+    <t>16 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -176,7 +176,7 @@
     <t>SashancheK</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 7 сек.</t>
+    <t>16 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -203,7 +203,7 @@
     <t>RusVodka777</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 1 сек.</t>
+    <t>15 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -221,7 +221,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>14 ч. 44 мин. 5 сек.</t>
+    <t>14 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -239,7 +239,7 @@
     <t>mark_sever</t>
   </si>
   <si>
-    <t>13 ч. 48 мин. 9 сек.</t>
+    <t>13 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -266,7 +266,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 41 сек.</t>
+    <t>13 ч. 01 мин. 41 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -311,7 +311,7 @@
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>12 ч. 34 мин. 1 сек.</t>
+    <t>12 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -320,7 +320,7 @@
     <t>DMIB</t>
   </si>
   <si>
-    <t>12 ч. 29 мин. 5 сек.</t>
+    <t>12 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -356,7 +356,7 @@
     <t>Аурика</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 40 сек.</t>
+    <t>12 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -365,7 +365,7 @@
     <t>anrn</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 25 сек.</t>
+    <t>12 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -374,7 +374,7 @@
     <t>Ronnie_</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 12 сек.</t>
+    <t>12 ч. 08 мин. 12 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -392,7 +392,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>11 ч. 15 мин. 5 сек.</t>
+    <t>11 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -437,7 +437,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>10 ч. 43 мин. 6 сек.</t>
+    <t>10 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -473,7 +473,7 @@
     <t>Disobey</t>
   </si>
   <si>
-    <t>10 ч. 28 мин. 3 сек.</t>
+    <t>10 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>49</t>
@@ -527,7 +527,7 @@
     <t>Titanium</t>
   </si>
   <si>
-    <t>10 ч. 10 мин. 8 сек.</t>
+    <t>10 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -536,7 +536,7 @@
     <t>vigovo2859</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 38 сек.</t>
+    <t>10 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -545,7 +545,7 @@
     <t>Matatabi</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 25 сек.</t>
+    <t>10 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -554,7 +554,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 25 сек.</t>
+    <t>10 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -563,7 +563,7 @@
     <t>С_УБОЙНОГО</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 5 сек.</t>
+    <t>10 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -599,7 +599,7 @@
     <t>sanich123</t>
   </si>
   <si>
-    <t>9 ч. 41 мин. 5 сек.</t>
+    <t>9 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -644,7 +644,7 @@
     <t>---SUSanin---</t>
   </si>
   <si>
-    <t>9 ч. 23 мин. 2 сек.</t>
+    <t>9 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>68</t>
@@ -662,7 +662,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>9 ч. 22 мин. 5 сек.</t>
+    <t>9 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -680,7 +680,7 @@
     <t>GrozaPogromov</t>
   </si>
   <si>
-    <t>9 ч. 16 мин. 9 сек.</t>
+    <t>9 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -707,7 +707,7 @@
     <t>igrom</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 30 сек.</t>
+    <t>9 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -716,7 +716,7 @@
     <t>8Lawliet</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 15 сек.</t>
+    <t>9 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -725,7 +725,7 @@
     <t>h2-positiv</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 57 сек.</t>
+    <t>9 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -734,7 +734,7 @@
     <t>Крестоносец</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 24 сек.</t>
+    <t>9 ч. 01 мин. 24 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -752,7 +752,7 @@
     <t>kondra</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 2 сек.</t>
+    <t>8 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>80</t>
@@ -833,7 +833,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 36 сек.</t>
+    <t>8 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -842,7 +842,7 @@
     <t>genafdsa</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 30 сек.</t>
+    <t>8 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -851,7 +851,7 @@
     <t>misharin</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 47 сек.</t>
+    <t>8 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>91</t>
@@ -860,7 +860,7 @@
     <t>Уклюжий</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 12 сек.</t>
+    <t>8 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>92</t>
@@ -950,7 +950,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>7 ч. 32 мин. 0 сек.</t>
+    <t>7 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>102</t>
@@ -959,7 +959,7 @@
     <t>borzonhiggs</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 5 сек.</t>
+    <t>7 ч. 28 мин. 05 сек.</t>
   </si>
   <si>
     <t>103</t>
@@ -1004,7 +1004,7 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>7 ч. 17 мин. 4 сек.</t>
+    <t>7 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>108</t>
@@ -1013,7 +1013,7 @@
     <t>Lyoks</t>
   </si>
   <si>
-    <t>7 ч. 17 мин. 3 сек.</t>
+    <t>7 ч. 17 мин. 03 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -1094,7 +1094,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 5 сек.</t>
+    <t>6 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1112,7 +1112,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 1 сек.</t>
+    <t>6 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>120</t>
@@ -1211,7 +1211,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>6 ч. 35 мин. 0 сек.</t>
+    <t>6 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1247,7 +1247,7 @@
     <t>репка</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 3 сек.</t>
+    <t>6 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1328,7 +1328,7 @@
     <t>Месть</t>
   </si>
   <si>
-    <t>6 ч. 15 мин. 7 сек.</t>
+    <t>6 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>144</t>
@@ -1337,7 +1337,7 @@
     <t>Катушка</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 36 сек.</t>
+    <t>6 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>145</t>
@@ -1346,7 +1346,7 @@
     <t>глупый</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>146</t>
@@ -1355,7 +1355,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 50 сек.</t>
+    <t>6 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>147</t>
@@ -1400,7 +1400,7 @@
     <t>quake</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 5 сек.</t>
+    <t>5 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1427,7 +1427,7 @@
     <t>ivanov</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 6 сек.</t>
+    <t>5 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1454,7 +1454,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 43 мин. 8 сек.</t>
+    <t>5 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1544,7 +1544,7 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>5 ч. 28 мин. 6 сек.</t>
+    <t>5 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>168</t>
@@ -1580,7 +1580,7 @@
     <t>Hleb_1989</t>
   </si>
   <si>
-    <t>5 ч. 13 мин. 4 сек.</t>
+    <t>5 ч. 13 мин. 04 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1616,7 +1616,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 12 сек.</t>
+    <t>5 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1625,7 +1625,7 @@
     <t>Spaider</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 18 сек.</t>
+    <t>5 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>177</t>
@@ -1634,7 +1634,7 @@
     <t>Аидочка</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 7 сек.</t>
+    <t>5 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>178</t>
@@ -1643,7 +1643,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 34 сек.</t>
+    <t>5 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>179</t>
@@ -1652,7 +1652,7 @@
     <t>Марафонец</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1661,7 +1661,7 @@
     <t>TIMA101</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 6 сек.</t>
+    <t>5 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1670,7 +1670,7 @@
     <t>efox</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 13 сек.</t>
+    <t>5 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1679,7 +1679,7 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 21 сек.</t>
+    <t>5 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>183</t>
@@ -1688,7 +1688,7 @@
     <t>Safeon</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 14 сек.</t>
+    <t>5 ч. 02 мин. 14 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1697,7 +1697,7 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 28 сек.</t>
+    <t>5 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1706,7 +1706,7 @@
     <t>oves</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 41 сек.</t>
+    <t>5 ч. 00 мин. 41 сек.</t>
   </si>
   <si>
     <t>186</t>
@@ -1823,7 +1823,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 4 сек.</t>
+    <t>4 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>199</t>
@@ -1922,7 +1922,7 @@
     <t>Смолвель</t>
   </si>
   <si>
-    <t>4 ч. 37 мин. 1 сек.</t>
+    <t>4 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>210</t>
@@ -1967,7 +1967,7 @@
     <t>Pavellum</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 9 сек.</t>
+    <t>4 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -1985,7 +1985,7 @@
     <t>KitsuneSpirit</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 8 сек.</t>
+    <t>4 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>217</t>
@@ -2075,7 +2075,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 8 сек.</t>
+    <t>4 ч. 22 мин. 08 сек.</t>
   </si>
   <si>
     <t>227</t>
@@ -2120,7 +2120,7 @@
     <t>valvlad</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 6 сек.</t>
+    <t>4 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>232</t>
@@ -2129,7 +2129,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>4 ч. 16 мин. 4 сек.</t>
+    <t>4 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2174,7 +2174,7 @@
     <t>ehbq</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 8 сек.</t>
+    <t>4 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>238</t>
@@ -2183,7 +2183,7 @@
     <t>Leopoleon</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 28 сек.</t>
+    <t>4 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2192,7 +2192,7 @@
     <t>Knighterrant</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 22 сек.</t>
+    <t>4 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2201,7 +2201,7 @@
     <t>smsn</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2210,7 +2210,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 1 сек.</t>
+    <t>4 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2219,7 +2219,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 34 сек.</t>
+    <t>4 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2228,7 +2228,7 @@
     <t>Руфер</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 51 сек.</t>
+    <t>4 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>244</t>
@@ -2237,7 +2237,7 @@
     <t>NEsanych</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 45 сек.</t>
+    <t>4 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2246,7 +2246,7 @@
     <t>nikolai5697</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 25 сек.</t>
+    <t>4 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>246</t>
@@ -2255,7 +2255,7 @@
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 29 сек.</t>
+    <t>4 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>247</t>
@@ -2282,7 +2282,7 @@
     <t>Andrew2</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 6 сек.</t>
+    <t>3 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2372,7 +2372,7 @@
     <t>lelf</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 9 сек.</t>
+    <t>3 ч. 55 мин. 09 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2381,7 +2381,7 @@
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 0 сек.</t>
+    <t>3 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2417,7 +2417,7 @@
     <t>Алексей_19</t>
   </si>
   <si>
-    <t>3 ч. 53 мин. 1 сек.</t>
+    <t>3 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>265</t>
@@ -2471,7 +2471,7 @@
     <t>1n1t</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 1 сек.</t>
+    <t>3 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2489,7 +2489,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>3 ч. 45 мин. 1 сек.</t>
+    <t>3 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>273</t>
@@ -2552,7 +2552,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 5 сек.</t>
+    <t>3 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2765,7 +2765,7 @@
     <t>TARDIS</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 4 сек.</t>
+    <t>3 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>305</t>
@@ -2855,7 +2855,7 @@
     <t>xks</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 7 сек.</t>
+    <t>3 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>315</t>
@@ -2864,7 +2864,7 @@
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 0 сек.</t>
+    <t>3 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>316</t>
@@ -2891,7 +2891,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 1 сек.</t>
+    <t>3 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>319</t>
@@ -3035,7 +3035,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>3 ч. 12 мин. 1 сек.</t>
+    <t>3 ч. 12 мин. 01 сек.</t>
   </si>
   <si>
     <t>335</t>
@@ -3062,7 +3062,7 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 7 сек.</t>
+    <t>3 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>338</t>
@@ -3071,7 +3071,7 @@
     <t>Saranka</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 2 сек.</t>
+    <t>3 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>339</t>
@@ -3080,7 +3080,7 @@
     <t>SmanR</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 52 сек.</t>
+    <t>3 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>340</t>
@@ -3089,7 +3089,7 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 45 сек.</t>
+    <t>3 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>341</t>
@@ -3098,7 +3098,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 29 сек.</t>
+    <t>3 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>342</t>
@@ -3107,7 +3107,7 @@
     <t>snail_qwerty</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 28 сек.</t>
+    <t>3 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>343</t>
@@ -3116,7 +3116,7 @@
     <t>nonstop_</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 15 сек.</t>
+    <t>3 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>344</t>
@@ -3125,7 +3125,7 @@
     <t>inmpower</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 3 сек.</t>
+    <t>3 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -3134,7 +3134,7 @@
     <t>Tenguy</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 30 сек.</t>
+    <t>3 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>346</t>
@@ -3143,7 +3143,7 @@
     <t>rovno</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 24 сек.</t>
+    <t>3 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>347</t>
@@ -3152,7 +3152,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 6 сек.</t>
+    <t>3 ч. 07 мин. 06 сек.</t>
   </si>
   <si>
     <t>348</t>
@@ -3161,7 +3161,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 14 сек.</t>
+    <t>3 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>349</t>
@@ -3170,7 +3170,7 @@
     <t>МихаПерец</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 8 сек.</t>
+    <t>3 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>350</t>
@@ -3179,7 +3179,7 @@
     <t>python_py</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 11 сек.</t>
+    <t>3 ч. 02 мин. 11 сек.</t>
   </si>
   <si>
     <t>351</t>
@@ -3188,7 +3188,7 @@
     <t>Despicable_Me</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 5 сек.</t>
+    <t>3 ч. 02 мин. 05 сек.</t>
   </si>
   <si>
     <t>352</t>
@@ -3197,7 +3197,7 @@
     <t>sonjun</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 57 сек.</t>
+    <t>3 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>353</t>
@@ -3206,7 +3206,7 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 15 сек.</t>
+    <t>3 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -3404,7 +3404,7 @@
     <t>leer</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 9 сек.</t>
+    <t>2 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>376</t>
@@ -3413,7 +3413,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 5 сек.</t>
+    <t>2 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>377</t>
@@ -3422,7 +3422,7 @@
     <t>Ethicon</t>
   </si>
   <si>
-    <t>2 ч. 45 мин. 3 сек.</t>
+    <t>2 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>378</t>
@@ -3602,7 +3602,7 @@
     <t>MoskovKazanova</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 3 сек.</t>
+    <t>2 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>398</t>
@@ -3611,7 +3611,7 @@
     <t>winix</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 0 сек.</t>
+    <t>2 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>399</t>
@@ -3686,7 +3686,7 @@
     <t>Vlad100</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 2 сек.</t>
+    <t>2 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>408</t>
@@ -3740,7 +3740,7 @@
     <t>strix_qb</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>414</t>
@@ -3767,7 +3767,7 @@
     <t>BlazWin</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 9 сек.</t>
+    <t>2 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>417</t>
@@ -3776,7 +3776,7 @@
     <t>mastodont</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 5 сек.</t>
+    <t>2 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>418</t>
@@ -4028,7 +4028,7 @@
     <t>Serhio97</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 8 сек.</t>
+    <t>2 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>446</t>
@@ -4037,7 +4037,7 @@
     <t>Клаудиа</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 5 сек.</t>
+    <t>2 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>447</t>
@@ -4055,7 +4055,7 @@
     <t>HollowDante</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 9 сек.</t>
+    <t>2 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>449</t>
@@ -4064,7 +4064,7 @@
     <t>perrito</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 8 сек.</t>
+    <t>2 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>450</t>
@@ -4073,7 +4073,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 2 сек.</t>
+    <t>2 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>451</t>
@@ -4082,7 +4082,7 @@
     <t>velsher123</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 0 сек.</t>
+    <t>2 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>452</t>
@@ -4091,7 +4091,7 @@
     <t>Baltasor</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 38 сек.</t>
+    <t>2 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>453</t>
@@ -4100,7 +4100,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 54 сек.</t>
+    <t>2 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>454</t>
@@ -4109,7 +4109,7 @@
     <t>fdjk</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 37 сек.</t>
+    <t>2 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -4118,7 +4118,7 @@
     <t>Yanci</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 58 сек.</t>
+    <t>2 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -4127,7 +4127,7 @@
     <t>tatava</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 39 сек.</t>
+    <t>2 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>457</t>
@@ -4136,7 +4136,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>458</t>
@@ -4145,7 +4145,7 @@
     <t>Днище3</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 24 сек.</t>
+    <t>2 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>459</t>
@@ -4154,7 +4154,7 @@
     <t>adviser105</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 4 сек.</t>
+    <t>2 ч. 07 мин. 04 сек.</t>
   </si>
   <si>
     <t>460</t>
@@ -4163,7 +4163,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>461</t>
@@ -4172,7 +4172,7 @@
     <t>destructive</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 51 сек.</t>
+    <t>2 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>462</t>
@@ -4181,7 +4181,7 @@
     <t>Гегемон</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 12 сек.</t>
+    <t>2 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>463</t>
@@ -4190,7 +4190,7 @@
     <t>Инженер555</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 49 сек.</t>
+    <t>2 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>464</t>
@@ -4199,7 +4199,7 @@
     <t>arhifant</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 37 сек.</t>
+    <t>2 ч. 05 мин. 37 сек.</t>
   </si>
   <si>
     <t>465</t>
@@ -4208,7 +4208,7 @@
     <t>vulp</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 13 сек.</t>
+    <t>2 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>466</t>
@@ -4217,7 +4217,7 @@
     <t>DonPiedro</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 25 сек.</t>
+    <t>2 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>467</t>
@@ -4226,7 +4226,7 @@
     <t>Гавриил</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 48 сек.</t>
+    <t>2 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>468</t>
@@ -4235,7 +4235,7 @@
     <t>XHidden</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>469</t>
@@ -4244,7 +4244,7 @@
     <t>sage_ol</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 38 сек.</t>
+    <t>2 ч. 02 мин. 38 сек.</t>
   </si>
   <si>
     <t>470</t>
@@ -4253,7 +4253,7 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 21 сек.</t>
+    <t>2 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>471</t>
@@ -4262,7 +4262,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 20 сек.</t>
+    <t>2 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>472</t>
@@ -4271,7 +4271,7 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 54 сек.</t>
+    <t>2 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>473</t>
@@ -4280,7 +4280,7 @@
     <t>dctvcjcfnm</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 45 сек.</t>
+    <t>2 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>474</t>
@@ -4289,7 +4289,7 @@
     <t>marinka19</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 36 сек.</t>
+    <t>2 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>475</t>
@@ -4298,7 +4298,7 @@
     <t>Ильк</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 30 сек.</t>
+    <t>2 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>476</t>
@@ -4307,7 +4307,7 @@
     <t>KeSeG</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 21 сек.</t>
+    <t>2 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>477</t>
@@ -4316,7 +4316,7 @@
     <t>Smalllynx</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 12 сек.</t>
+    <t>2 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>478</t>
@@ -4325,7 +4325,7 @@
     <t>слоупочище</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 35 сек.</t>
+    <t>2 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>479</t>
@@ -4334,7 +4334,7 @@
     <t>Kml</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 7 сек.</t>
+    <t>2 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>480</t>
@@ -4343,7 +4343,7 @@
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 0 сек.</t>
+    <t>2 ч. 00 мин. 00 сек.</t>
   </si>
   <si>
     <t>481</t>
@@ -4361,7 +4361,7 @@
     <t>vovetRU</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 9 сек.</t>
+    <t>1 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4370,7 +4370,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4379,7 +4379,7 @@
     <t>paintedhat</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 3 сек.</t>
+    <t>1 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4433,7 +4433,7 @@
     <t>anahata</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 6 сек.</t>
+    <t>1 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>Oble</t>
@@ -4466,7 +4466,7 @@
     <t>T0RM0ZZZ</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4511,7 +4511,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 1 сек.</t>
+    <t>1 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>501</t>
@@ -4775,7 +4775,7 @@
     <t>JESE_R</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 4 сек.</t>
+    <t>1 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>531</t>
@@ -4784,7 +4784,7 @@
     <t>Leh</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 2 сек.</t>
+    <t>1 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>532</t>
@@ -4820,7 +4820,7 @@
     <t>Prana</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 8 сек.</t>
+    <t>1 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>536</t>
@@ -4865,7 +4865,7 @@
     <t>mexanik</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 2 сек.</t>
+    <t>1 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>541</t>
@@ -5027,7 +5027,7 @@
     <t>D1mchik</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 2 сек.</t>
+    <t>1 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>559</t>
@@ -5036,7 +5036,7 @@
     <t>InHUCHable</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 0 сек.</t>
+    <t>1 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>560</t>
@@ -5081,7 +5081,7 @@
     <t>Wonder</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 6 сек.</t>
+    <t>1 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>565</t>
@@ -5126,7 +5126,7 @@
     <t>Кросафчег</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 3 сек.</t>
+    <t>1 ч. 25 мин. 03 сек.</t>
   </si>
   <si>
     <t>570</t>
@@ -5162,7 +5162,7 @@
     <t>Ш0ТАМ</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 8 сек.</t>
+    <t>1 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>574</t>
@@ -5189,7 +5189,7 @@
     <t>Guillentes</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 2 сек.</t>
+    <t>1 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>577</t>
@@ -5246,7 +5246,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>584</t>
@@ -5264,7 +5264,7 @@
     <t>Cybernetix</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 9 сек.</t>
+    <t>1 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>586</t>
@@ -5336,7 +5336,7 @@
     <t>Chumavik1</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 45 сек.</t>
+    <t>1 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>594</t>
@@ -5363,7 +5363,7 @@
     <t>ZILYA</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 9 сек.</t>
+    <t>0 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>597</t>
